--- a/src/main/resources/data/ErrorFiles/dementia_clm_v2.xlsx
+++ b/src/main/resources/data/ErrorFiles/dementia_clm_v2.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$M$180</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$M$180</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -1729,7 +1730,7 @@
     <t xml:space="preserve">the amyloid 42 level is pathological if the level is inferior to 700</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/proteome/csf_proteome/amyloid42_status </t>
+    <t xml:space="preserve">/root/proteome/csf_proteome/amyloid42_status</t>
   </si>
   <si>
     <t xml:space="preserve">Level of amyloid beta 1-40 peptides in cerebrospinal fluid</t>
@@ -1841,7 +1842,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1877,11 +1878,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1926,7 +1922,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1949,10 +1945,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1978,23 +1970,23 @@
   </sheetPr>
   <dimension ref="A1:M180"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B172" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E176" activeCellId="0" sqref="E176"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G163" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J171" activeCellId="0" sqref="J171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="49.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="39.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="80.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.58"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="75.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="41.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="78.82"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="11" style="1" width="11.52"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="48.7295918367347"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="38.6071428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="79.3775510204082"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="74.9183673469388"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="41.0357142857143"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="77.8877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2061,6 +2053,7 @@
       <c r="J2" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="K2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="23.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
@@ -2085,6 +2078,7 @@
       <c r="J3" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="K3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="23.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
@@ -2109,6 +2103,7 @@
       <c r="J4" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="K4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
@@ -2135,6 +2130,7 @@
       <c r="J5" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="K5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
@@ -2161,6 +2157,7 @@
       <c r="J6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="K6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
@@ -2185,6 +2182,7 @@
       <c r="J7" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="K7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
@@ -2209,6 +2207,7 @@
       <c r="J8" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="K8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
@@ -2233,6 +2232,7 @@
       <c r="J9" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="K9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
@@ -2257,6 +2257,7 @@
       <c r="J10" s="4" t="s">
         <v>47</v>
       </c>
+      <c r="K10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
@@ -2281,6 +2282,7 @@
       <c r="J11" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="K11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
@@ -2305,6 +2307,7 @@
       <c r="J12" s="4" t="s">
         <v>53</v>
       </c>
+      <c r="K12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
@@ -2329,6 +2332,7 @@
       <c r="J13" s="4" t="s">
         <v>56</v>
       </c>
+      <c r="K13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
@@ -2353,6 +2357,7 @@
       <c r="J14" s="4" t="s">
         <v>59</v>
       </c>
+      <c r="K14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
@@ -2377,6 +2382,7 @@
       <c r="J15" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="K15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
@@ -2401,6 +2407,7 @@
       <c r="J16" s="4" t="s">
         <v>65</v>
       </c>
+      <c r="K16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
@@ -2425,6 +2432,7 @@
       <c r="J17" s="4" t="s">
         <v>68</v>
       </c>
+      <c r="K17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
@@ -2449,6 +2457,7 @@
       <c r="J18" s="4" t="s">
         <v>71</v>
       </c>
+      <c r="K18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
@@ -2473,6 +2482,7 @@
       <c r="J19" s="4" t="s">
         <v>74</v>
       </c>
+      <c r="K19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
@@ -2497,6 +2507,7 @@
       <c r="J20" s="4" t="s">
         <v>77</v>
       </c>
+      <c r="K20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
@@ -2521,6 +2532,7 @@
       <c r="J21" s="4" t="s">
         <v>80</v>
       </c>
+      <c r="K21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
@@ -2545,6 +2557,7 @@
       <c r="J22" s="4" t="s">
         <v>83</v>
       </c>
+      <c r="K22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
@@ -2569,6 +2582,7 @@
       <c r="J23" s="4" t="s">
         <v>86</v>
       </c>
+      <c r="K23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
@@ -2593,6 +2607,7 @@
       <c r="J24" s="4" t="s">
         <v>89</v>
       </c>
+      <c r="K24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
@@ -2617,6 +2632,7 @@
       <c r="J25" s="4" t="s">
         <v>92</v>
       </c>
+      <c r="K25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
@@ -2641,6 +2657,7 @@
       <c r="J26" s="4" t="s">
         <v>95</v>
       </c>
+      <c r="K26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
@@ -2665,6 +2682,7 @@
       <c r="J27" s="4" t="s">
         <v>98</v>
       </c>
+      <c r="K27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
@@ -2689,6 +2707,7 @@
       <c r="J28" s="4" t="s">
         <v>101</v>
       </c>
+      <c r="K28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
@@ -2713,6 +2732,7 @@
       <c r="J29" s="4" t="s">
         <v>104</v>
       </c>
+      <c r="K29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
@@ -2737,6 +2757,7 @@
       <c r="J30" s="4" t="s">
         <v>107</v>
       </c>
+      <c r="K30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
@@ -2761,6 +2782,7 @@
       <c r="J31" s="4" t="s">
         <v>110</v>
       </c>
+      <c r="K31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
@@ -2785,6 +2807,7 @@
       <c r="J32" s="4" t="s">
         <v>113</v>
       </c>
+      <c r="K32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
@@ -2809,6 +2832,7 @@
       <c r="J33" s="4" t="s">
         <v>116</v>
       </c>
+      <c r="K33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
@@ -2833,6 +2857,7 @@
       <c r="J34" s="4" t="s">
         <v>119</v>
       </c>
+      <c r="K34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
@@ -2857,6 +2882,7 @@
       <c r="J35" s="4" t="s">
         <v>122</v>
       </c>
+      <c r="K35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
@@ -2881,6 +2907,7 @@
       <c r="J36" s="4" t="s">
         <v>125</v>
       </c>
+      <c r="K36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
@@ -2905,6 +2932,7 @@
       <c r="J37" s="4" t="s">
         <v>128</v>
       </c>
+      <c r="K37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
@@ -2929,6 +2957,7 @@
       <c r="J38" s="4" t="s">
         <v>131</v>
       </c>
+      <c r="K38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
@@ -2953,6 +2982,7 @@
       <c r="J39" s="4" t="s">
         <v>134</v>
       </c>
+      <c r="K39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
@@ -2977,6 +3007,7 @@
       <c r="J40" s="4" t="s">
         <v>137</v>
       </c>
+      <c r="K40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
@@ -3001,6 +3032,7 @@
       <c r="J41" s="4" t="s">
         <v>140</v>
       </c>
+      <c r="K41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
@@ -3025,6 +3057,7 @@
       <c r="J42" s="4" t="s">
         <v>143</v>
       </c>
+      <c r="K42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
@@ -3049,6 +3082,7 @@
       <c r="J43" s="4" t="s">
         <v>146</v>
       </c>
+      <c r="K43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
@@ -3073,6 +3107,7 @@
       <c r="J44" s="4" t="s">
         <v>149</v>
       </c>
+      <c r="K44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
@@ -3097,6 +3132,7 @@
       <c r="J45" s="4" t="s">
         <v>152</v>
       </c>
+      <c r="K45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
@@ -3121,6 +3157,7 @@
       <c r="J46" s="4" t="s">
         <v>155</v>
       </c>
+      <c r="K46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
@@ -3145,6 +3182,7 @@
       <c r="J47" s="4" t="s">
         <v>158</v>
       </c>
+      <c r="K47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
@@ -3169,6 +3207,7 @@
       <c r="J48" s="4" t="s">
         <v>161</v>
       </c>
+      <c r="K48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
@@ -3193,6 +3232,7 @@
       <c r="J49" s="4" t="s">
         <v>164</v>
       </c>
+      <c r="K49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
@@ -3217,6 +3257,7 @@
       <c r="J50" s="4" t="s">
         <v>167</v>
       </c>
+      <c r="K50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
@@ -3241,6 +3282,7 @@
       <c r="J51" s="4" t="s">
         <v>170</v>
       </c>
+      <c r="K51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
@@ -3265,6 +3307,7 @@
       <c r="J52" s="4" t="s">
         <v>173</v>
       </c>
+      <c r="K52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
@@ -3289,6 +3332,7 @@
       <c r="J53" s="4" t="s">
         <v>176</v>
       </c>
+      <c r="K53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
@@ -3313,6 +3357,7 @@
       <c r="J54" s="4" t="s">
         <v>179</v>
       </c>
+      <c r="K54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
@@ -3337,6 +3382,7 @@
       <c r="J55" s="4" t="s">
         <v>182</v>
       </c>
+      <c r="K55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
@@ -3361,6 +3407,7 @@
       <c r="J56" s="4" t="s">
         <v>185</v>
       </c>
+      <c r="K56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
@@ -3385,6 +3432,7 @@
       <c r="J57" s="4" t="s">
         <v>188</v>
       </c>
+      <c r="K57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
@@ -3409,6 +3457,7 @@
       <c r="J58" s="4" t="s">
         <v>191</v>
       </c>
+      <c r="K58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
@@ -3433,6 +3482,7 @@
       <c r="J59" s="4" t="s">
         <v>194</v>
       </c>
+      <c r="K59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
@@ -3457,6 +3507,7 @@
       <c r="J60" s="4" t="s">
         <v>197</v>
       </c>
+      <c r="K60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
@@ -3481,6 +3532,7 @@
       <c r="J61" s="4" t="s">
         <v>200</v>
       </c>
+      <c r="K61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
@@ -3505,6 +3557,7 @@
       <c r="J62" s="4" t="s">
         <v>203</v>
       </c>
+      <c r="K62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
@@ -3529,6 +3582,7 @@
       <c r="J63" s="4" t="s">
         <v>206</v>
       </c>
+      <c r="K63" s="0"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
@@ -3553,6 +3607,7 @@
       <c r="J64" s="4" t="s">
         <v>209</v>
       </c>
+      <c r="K64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
@@ -3577,6 +3632,7 @@
       <c r="J65" s="4" t="s">
         <v>212</v>
       </c>
+      <c r="K65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
@@ -3601,6 +3657,7 @@
       <c r="J66" s="4" t="s">
         <v>215</v>
       </c>
+      <c r="K66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
@@ -3625,6 +3682,7 @@
       <c r="J67" s="4" t="s">
         <v>218</v>
       </c>
+      <c r="K67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
@@ -3649,6 +3707,7 @@
       <c r="J68" s="4" t="s">
         <v>221</v>
       </c>
+      <c r="K68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
@@ -3673,6 +3732,7 @@
       <c r="J69" s="4" t="s">
         <v>224</v>
       </c>
+      <c r="K69" s="0"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
@@ -3697,6 +3757,7 @@
       <c r="J70" s="4" t="s">
         <v>227</v>
       </c>
+      <c r="K70" s="0"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
@@ -3721,6 +3782,7 @@
       <c r="J71" s="4" t="s">
         <v>230</v>
       </c>
+      <c r="K71" s="0"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
@@ -3745,6 +3807,7 @@
       <c r="J72" s="4" t="s">
         <v>233</v>
       </c>
+      <c r="K72" s="0"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
@@ -3769,6 +3832,7 @@
       <c r="J73" s="4" t="s">
         <v>236</v>
       </c>
+      <c r="K73" s="0"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
@@ -3793,6 +3857,7 @@
       <c r="J74" s="4" t="s">
         <v>239</v>
       </c>
+      <c r="K74" s="0"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
@@ -3817,6 +3882,7 @@
       <c r="J75" s="4" t="s">
         <v>242</v>
       </c>
+      <c r="K75" s="0"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
@@ -3841,6 +3907,7 @@
       <c r="J76" s="4" t="s">
         <v>245</v>
       </c>
+      <c r="K76" s="0"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
@@ -3865,6 +3932,7 @@
       <c r="J77" s="4" t="s">
         <v>248</v>
       </c>
+      <c r="K77" s="0"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
@@ -3889,6 +3957,7 @@
       <c r="J78" s="4" t="s">
         <v>251</v>
       </c>
+      <c r="K78" s="0"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
@@ -3913,6 +3982,7 @@
       <c r="J79" s="4" t="s">
         <v>254</v>
       </c>
+      <c r="K79" s="0"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
@@ -3937,6 +4007,7 @@
       <c r="J80" s="4" t="s">
         <v>257</v>
       </c>
+      <c r="K80" s="0"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
@@ -3961,6 +4032,7 @@
       <c r="J81" s="4" t="s">
         <v>260</v>
       </c>
+      <c r="K81" s="0"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
@@ -3985,6 +4057,7 @@
       <c r="J82" s="4" t="s">
         <v>263</v>
       </c>
+      <c r="K82" s="0"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
@@ -4009,6 +4082,7 @@
       <c r="J83" s="4" t="s">
         <v>266</v>
       </c>
+      <c r="K83" s="0"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
@@ -4033,6 +4107,7 @@
       <c r="J84" s="4" t="s">
         <v>269</v>
       </c>
+      <c r="K84" s="0"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
@@ -4057,6 +4132,7 @@
       <c r="J85" s="4" t="s">
         <v>272</v>
       </c>
+      <c r="K85" s="0"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
@@ -4081,6 +4157,7 @@
       <c r="J86" s="4" t="s">
         <v>275</v>
       </c>
+      <c r="K86" s="0"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="s">
@@ -4105,6 +4182,7 @@
       <c r="J87" s="4" t="s">
         <v>278</v>
       </c>
+      <c r="K87" s="0"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
@@ -4129,6 +4207,7 @@
       <c r="J88" s="4" t="s">
         <v>281</v>
       </c>
+      <c r="K88" s="0"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
@@ -4153,6 +4232,7 @@
       <c r="J89" s="4" t="s">
         <v>284</v>
       </c>
+      <c r="K89" s="0"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="s">
@@ -4177,6 +4257,7 @@
       <c r="J90" s="4" t="s">
         <v>287</v>
       </c>
+      <c r="K90" s="0"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="s">
@@ -4201,6 +4282,7 @@
       <c r="J91" s="4" t="s">
         <v>290</v>
       </c>
+      <c r="K91" s="0"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="s">
@@ -4225,6 +4307,7 @@
       <c r="J92" s="4" t="s">
         <v>293</v>
       </c>
+      <c r="K92" s="0"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="s">
@@ -4249,6 +4332,7 @@
       <c r="J93" s="4" t="s">
         <v>296</v>
       </c>
+      <c r="K93" s="0"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="s">
@@ -4273,6 +4357,7 @@
       <c r="J94" s="4" t="s">
         <v>299</v>
       </c>
+      <c r="K94" s="0"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="4" t="s">
@@ -4297,6 +4382,7 @@
       <c r="J95" s="4" t="s">
         <v>302</v>
       </c>
+      <c r="K95" s="0"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="s">
@@ -4321,6 +4407,7 @@
       <c r="J96" s="4" t="s">
         <v>305</v>
       </c>
+      <c r="K96" s="0"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="s">
@@ -4345,6 +4432,7 @@
       <c r="J97" s="4" t="s">
         <v>308</v>
       </c>
+      <c r="K97" s="0"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="s">
@@ -4369,6 +4457,7 @@
       <c r="J98" s="4" t="s">
         <v>311</v>
       </c>
+      <c r="K98" s="0"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="s">
@@ -4393,6 +4482,7 @@
       <c r="J99" s="4" t="s">
         <v>314</v>
       </c>
+      <c r="K99" s="0"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="s">
@@ -4417,6 +4507,7 @@
       <c r="J100" s="4" t="s">
         <v>317</v>
       </c>
+      <c r="K100" s="0"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="s">
@@ -4441,6 +4532,7 @@
       <c r="J101" s="4" t="s">
         <v>320</v>
       </c>
+      <c r="K101" s="0"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="s">
@@ -4465,6 +4557,7 @@
       <c r="J102" s="4" t="s">
         <v>323</v>
       </c>
+      <c r="K102" s="0"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="s">
@@ -4489,6 +4582,7 @@
       <c r="J103" s="4" t="s">
         <v>326</v>
       </c>
+      <c r="K103" s="0"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="4" t="s">
@@ -4513,6 +4607,7 @@
       <c r="J104" s="4" t="s">
         <v>329</v>
       </c>
+      <c r="K104" s="0"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="s">
@@ -4537,6 +4632,7 @@
       <c r="J105" s="4" t="s">
         <v>332</v>
       </c>
+      <c r="K105" s="0"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="4" t="s">
@@ -4561,6 +4657,7 @@
       <c r="J106" s="4" t="s">
         <v>335</v>
       </c>
+      <c r="K106" s="0"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="s">
@@ -4585,6 +4682,7 @@
       <c r="J107" s="4" t="s">
         <v>338</v>
       </c>
+      <c r="K107" s="0"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="s">
@@ -4609,6 +4707,7 @@
       <c r="J108" s="4" t="s">
         <v>341</v>
       </c>
+      <c r="K108" s="0"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="s">
@@ -4633,6 +4732,7 @@
       <c r="J109" s="4" t="s">
         <v>344</v>
       </c>
+      <c r="K109" s="0"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="4" t="s">
@@ -4657,6 +4757,7 @@
       <c r="J110" s="4" t="s">
         <v>347</v>
       </c>
+      <c r="K110" s="0"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="4" t="s">
@@ -4681,6 +4782,7 @@
       <c r="J111" s="4" t="s">
         <v>350</v>
       </c>
+      <c r="K111" s="0"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="s">
@@ -4705,6 +4807,7 @@
       <c r="J112" s="4" t="s">
         <v>353</v>
       </c>
+      <c r="K112" s="0"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="s">
@@ -4729,6 +4832,7 @@
       <c r="J113" s="4" t="s">
         <v>356</v>
       </c>
+      <c r="K113" s="0"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="s">
@@ -4753,6 +4857,7 @@
       <c r="J114" s="4" t="s">
         <v>359</v>
       </c>
+      <c r="K114" s="0"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="s">
@@ -4777,6 +4882,7 @@
       <c r="J115" s="4" t="s">
         <v>362</v>
       </c>
+      <c r="K115" s="0"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="s">
@@ -4801,6 +4907,7 @@
       <c r="J116" s="4" t="s">
         <v>365</v>
       </c>
+      <c r="K116" s="0"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="s">
@@ -4825,6 +4932,7 @@
       <c r="J117" s="4" t="s">
         <v>368</v>
       </c>
+      <c r="K117" s="0"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="4" t="s">
@@ -4849,6 +4957,7 @@
       <c r="J118" s="4" t="s">
         <v>371</v>
       </c>
+      <c r="K118" s="0"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="4" t="s">
@@ -4873,6 +4982,7 @@
       <c r="J119" s="4" t="s">
         <v>374</v>
       </c>
+      <c r="K119" s="0"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="4" t="s">
@@ -4897,6 +5007,7 @@
       <c r="J120" s="4" t="s">
         <v>377</v>
       </c>
+      <c r="K120" s="0"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="4" t="s">
@@ -4921,6 +5032,7 @@
       <c r="J121" s="4" t="s">
         <v>380</v>
       </c>
+      <c r="K121" s="0"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="4" t="s">
@@ -4945,6 +5057,7 @@
       <c r="J122" s="4" t="s">
         <v>383</v>
       </c>
+      <c r="K122" s="0"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="4" t="s">
@@ -4969,6 +5082,7 @@
       <c r="J123" s="4" t="s">
         <v>386</v>
       </c>
+      <c r="K123" s="0"/>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="4" t="s">
@@ -4993,6 +5107,7 @@
       <c r="J124" s="4" t="s">
         <v>389</v>
       </c>
+      <c r="K124" s="0"/>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="4" t="s">
@@ -5017,6 +5132,7 @@
       <c r="J125" s="4" t="s">
         <v>392</v>
       </c>
+      <c r="K125" s="0"/>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="4" t="s">
@@ -5041,6 +5157,7 @@
       <c r="J126" s="4" t="s">
         <v>395</v>
       </c>
+      <c r="K126" s="0"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="4" t="s">
@@ -5065,6 +5182,7 @@
       <c r="J127" s="4" t="s">
         <v>398</v>
       </c>
+      <c r="K127" s="0"/>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="4" t="s">
@@ -5089,6 +5207,7 @@
       <c r="J128" s="4" t="s">
         <v>401</v>
       </c>
+      <c r="K128" s="0"/>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="4" t="s">
@@ -5113,6 +5232,7 @@
       <c r="J129" s="4" t="s">
         <v>404</v>
       </c>
+      <c r="K129" s="0"/>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="4" t="s">
@@ -5137,6 +5257,7 @@
       <c r="J130" s="4" t="s">
         <v>407</v>
       </c>
+      <c r="K130" s="0"/>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="4" t="s">
@@ -5161,6 +5282,7 @@
       <c r="J131" s="4" t="s">
         <v>410</v>
       </c>
+      <c r="K131" s="0"/>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="4" t="s">
@@ -5185,6 +5307,7 @@
       <c r="J132" s="4" t="s">
         <v>413</v>
       </c>
+      <c r="K132" s="0"/>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="4" t="s">
@@ -5209,6 +5332,7 @@
       <c r="J133" s="4" t="s">
         <v>416</v>
       </c>
+      <c r="K133" s="0"/>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="4" t="s">
@@ -5233,6 +5357,7 @@
       <c r="J134" s="4" t="s">
         <v>419</v>
       </c>
+      <c r="K134" s="0"/>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="4" t="s">
@@ -5257,6 +5382,7 @@
       <c r="J135" s="4" t="s">
         <v>422</v>
       </c>
+      <c r="K135" s="0"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="4" t="s">
@@ -5281,6 +5407,7 @@
       <c r="J136" s="4" t="s">
         <v>425</v>
       </c>
+      <c r="K136" s="0"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="4" t="s">
@@ -5305,6 +5432,7 @@
       <c r="J137" s="4" t="s">
         <v>428</v>
       </c>
+      <c r="K137" s="0"/>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="4" t="s">
@@ -5329,6 +5457,7 @@
       <c r="J138" s="4" t="s">
         <v>431</v>
       </c>
+      <c r="K138" s="0"/>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="4" t="s">
@@ -5353,6 +5482,7 @@
       <c r="J139" s="4" t="s">
         <v>434</v>
       </c>
+      <c r="K139" s="0"/>
     </row>
     <row r="140" customFormat="false" ht="23.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="4" t="s">
@@ -5379,6 +5509,7 @@
       <c r="J140" s="4" t="s">
         <v>440</v>
       </c>
+      <c r="K140" s="0"/>
     </row>
     <row r="141" customFormat="false" ht="55.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="4" t="s">
@@ -5405,6 +5536,7 @@
       <c r="J141" s="4" t="s">
         <v>445</v>
       </c>
+      <c r="K141" s="0"/>
     </row>
     <row r="142" customFormat="false" ht="23.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="4" t="s">
@@ -5431,6 +5563,7 @@
       <c r="J142" s="4" t="s">
         <v>449</v>
       </c>
+      <c r="K142" s="0"/>
     </row>
     <row r="143" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="4" t="s">
@@ -5457,6 +5590,7 @@
       <c r="J143" s="4" t="s">
         <v>454</v>
       </c>
+      <c r="K143" s="0"/>
     </row>
     <row r="144" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="4" t="s">
@@ -5483,6 +5617,7 @@
       <c r="J144" s="4" t="s">
         <v>458</v>
       </c>
+      <c r="K144" s="0"/>
     </row>
     <row r="145" customFormat="false" ht="55.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="4" t="s">
@@ -5509,6 +5644,7 @@
       <c r="J145" s="4" t="s">
         <v>463</v>
       </c>
+      <c r="K145" s="0"/>
     </row>
     <row r="146" customFormat="false" ht="34.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="4" t="s">
@@ -5535,6 +5671,7 @@
       <c r="J146" s="4" t="s">
         <v>469</v>
       </c>
+      <c r="K146" s="0"/>
     </row>
     <row r="147" customFormat="false" ht="55.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="4" t="s">
@@ -5561,6 +5698,7 @@
       <c r="J147" s="4" t="s">
         <v>473</v>
       </c>
+      <c r="K147" s="0"/>
     </row>
     <row r="148" customFormat="false" ht="34.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="4" t="s">
@@ -5587,6 +5725,7 @@
       <c r="J148" s="4" t="s">
         <v>478</v>
       </c>
+      <c r="K148" s="0"/>
     </row>
     <row r="149" customFormat="false" ht="34.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="4" t="s">
@@ -5613,6 +5752,7 @@
       <c r="J149" s="4" t="s">
         <v>483</v>
       </c>
+      <c r="K149" s="0"/>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="4" t="s">
@@ -5639,6 +5779,7 @@
       <c r="J150" s="4" t="s">
         <v>487</v>
       </c>
+      <c r="K150" s="0"/>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="4" t="s">
@@ -5665,6 +5806,7 @@
       <c r="J151" s="4" t="s">
         <v>493</v>
       </c>
+      <c r="K151" s="0"/>
     </row>
     <row r="152" customFormat="false" ht="23.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="4" t="s">
@@ -5691,6 +5833,7 @@
       <c r="J152" s="4" t="s">
         <v>498</v>
       </c>
+      <c r="K152" s="0"/>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="4" t="s">
@@ -5719,6 +5862,7 @@
       <c r="J153" s="4" t="s">
         <v>504</v>
       </c>
+      <c r="K153" s="0"/>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="4" t="s">
@@ -5747,6 +5891,7 @@
       <c r="J154" s="4" t="s">
         <v>510</v>
       </c>
+      <c r="K154" s="0"/>
     </row>
     <row r="155" customFormat="false" ht="23.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="4" t="s">
@@ -5773,6 +5918,7 @@
       <c r="J155" s="4" t="s">
         <v>515</v>
       </c>
+      <c r="K155" s="0"/>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="4" t="s">
@@ -5797,6 +5943,7 @@
       <c r="J156" s="4" t="s">
         <v>518</v>
       </c>
+      <c r="K156" s="0"/>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="4" t="s">
@@ -5821,6 +5968,7 @@
       <c r="J157" s="4" t="s">
         <v>521</v>
       </c>
+      <c r="K157" s="0"/>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="4" t="s">
@@ -5845,6 +5993,7 @@
       <c r="J158" s="4" t="s">
         <v>524</v>
       </c>
+      <c r="K158" s="0"/>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="4" t="s">
@@ -5869,6 +6018,7 @@
       <c r="J159" s="4" t="s">
         <v>527</v>
       </c>
+      <c r="K159" s="0"/>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="4" t="s">
@@ -5893,6 +6043,7 @@
       <c r="J160" s="4" t="s">
         <v>530</v>
       </c>
+      <c r="K160" s="0"/>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="4" t="s">
@@ -5917,6 +6068,7 @@
       <c r="J161" s="4" t="s">
         <v>533</v>
       </c>
+      <c r="K161" s="0"/>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="4" t="s">
@@ -5941,6 +6093,7 @@
       <c r="J162" s="4" t="s">
         <v>536</v>
       </c>
+      <c r="K162" s="0"/>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="4" t="s">
@@ -5965,6 +6118,7 @@
       <c r="J163" s="4" t="s">
         <v>539</v>
       </c>
+      <c r="K163" s="0"/>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="4" t="s">
@@ -5989,6 +6143,7 @@
       <c r="J164" s="4" t="s">
         <v>542</v>
       </c>
+      <c r="K164" s="0"/>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="4" t="s">
@@ -6013,6 +6168,7 @@
       <c r="J165" s="4" t="s">
         <v>545</v>
       </c>
+      <c r="K165" s="0"/>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="4" t="s">
@@ -6037,6 +6193,7 @@
       <c r="J166" s="4" t="s">
         <v>548</v>
       </c>
+      <c r="K166" s="0"/>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="4" t="s">
@@ -6061,6 +6218,7 @@
       <c r="J167" s="4" t="s">
         <v>551</v>
       </c>
+      <c r="K167" s="0"/>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="4" t="s">
@@ -6085,6 +6243,7 @@
       <c r="J168" s="4" t="s">
         <v>554</v>
       </c>
+      <c r="K168" s="0"/>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="4" t="s">
@@ -6109,6 +6268,7 @@
       <c r="J169" s="4" t="s">
         <v>559</v>
       </c>
+      <c r="K169" s="0"/>
     </row>
     <row r="170" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="4" t="s">
@@ -6133,6 +6293,7 @@
       <c r="J170" s="4" t="s">
         <v>563</v>
       </c>
+      <c r="K170" s="0"/>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="4" t="s">
@@ -6159,6 +6320,7 @@
       <c r="J171" s="4" t="s">
         <v>568</v>
       </c>
+      <c r="K171" s="0"/>
     </row>
     <row r="172" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="4" t="s">
@@ -6183,6 +6345,7 @@
       <c r="J172" s="4" t="s">
         <v>572</v>
       </c>
+      <c r="K172" s="0"/>
     </row>
     <row r="173" customFormat="false" ht="68.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="4" t="s">
@@ -6207,6 +6370,7 @@
       <c r="J173" s="4" t="s">
         <v>576</v>
       </c>
+      <c r="K173" s="0"/>
     </row>
     <row r="174" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="4" t="s">
@@ -6231,6 +6395,7 @@
       <c r="J174" s="4" t="s">
         <v>580</v>
       </c>
+      <c r="K174" s="0"/>
     </row>
     <row r="175" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="4" t="s">
@@ -6272,7 +6437,7 @@
       <c r="D176" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="E176" s="6"/>
+      <c r="E176" s="4"/>
       <c r="F176" s="4"/>
       <c r="G176" s="4"/>
       <c r="H176" s="4"/>
@@ -6383,7 +6548,7 @@
   <autoFilter ref="A1:M180"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/src/main/resources/data/ErrorFiles/dementia_clm_v2.xlsx
+++ b/src/main/resources/data/ErrorFiles/dementia_clm_v2.xlsx
@@ -13,6 +13,7 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$M$180</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$M$180</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$M$180</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -80,7 +81,7 @@
     <t xml:space="preserve">AV45 Average AV45 SUVR of frontal  anterior cingulate  precuneus  and parietal cortex\nrelative to the cerebellum</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/pet/av45</t>
+    <t xml:space="preserve">/dementia/pet/av45</t>
   </si>
   <si>
     <t xml:space="preserve">FDG-PET</t>
@@ -92,7 +93,7 @@
     <t xml:space="preserve">Average FDG-PET of angular  temporal  and posterior cingulate. Most important hypometabolic regions that are indicative of pathological metabolic change in MCI and AD.</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/pet/fdg</t>
+    <t xml:space="preserve">/dementia/pet/fdg</t>
   </si>
   <si>
     <t xml:space="preserve">PIB</t>
@@ -104,7 +105,7 @@
     <t xml:space="preserve">Average PIB SUVR of frontal cortex  anterior cingulate  precuneus cortex  and parietal cortex.</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/pet/pib</t>
+    <t xml:space="preserve">/dementia/pet/pib</t>
   </si>
   <si>
     <t xml:space="preserve">Brainstem</t>
@@ -119,7 +120,7 @@
     <t xml:space="preserve">Brainstem volume</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/brainstem</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/brainstem</t>
   </si>
   <si>
     <t xml:space="preserve">TIV</t>
@@ -131,7 +132,7 @@
     <t xml:space="preserve">Total intra-cranial volume</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/tiv</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/tiv</t>
   </si>
   <si>
     <t xml:space="preserve">3rd Ventricle</t>
@@ -140,7 +141,7 @@
     <t xml:space="preserve">_3rdventricle</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/csf_volume/_3rdventricle</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/csf_volume/_3rdventricle</t>
   </si>
   <si>
     <t xml:space="preserve">4th Ventricle</t>
@@ -149,7 +150,7 @@
     <t xml:space="preserve">_4thventricle</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/csf_volume/_4thventricle</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/csf_volume/_4thventricle</t>
   </si>
   <si>
     <t xml:space="preserve">CSF global</t>
@@ -158,7 +159,7 @@
     <t xml:space="preserve">csfglobal</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/csf_volume/csfglobal</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/csf_volume/csfglobal</t>
   </si>
   <si>
     <t xml:space="preserve">Left inferior lateral ventricle</t>
@@ -167,7 +168,7 @@
     <t xml:space="preserve">leftinflatvent</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/csf_volume/leftinflatvent</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/csf_volume/leftinflatvent</t>
   </si>
   <si>
     <t xml:space="preserve">Left lateral ventricle</t>
@@ -176,7 +177,7 @@
     <t xml:space="preserve">leftlateralventricle</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/csf_volume/leftlateralventricle</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/csf_volume/leftlateralventricle</t>
   </si>
   <si>
     <t xml:space="preserve">Right inferior lateral ventricle</t>
@@ -185,7 +186,7 @@
     <t xml:space="preserve">rightinflatvent</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/csf_volume/rightinflatvent</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/csf_volume/rightinflatvent</t>
   </si>
   <si>
     <t xml:space="preserve">Right lateral ventricle</t>
@@ -194,7 +195,7 @@
     <t xml:space="preserve">rightlateralventricle</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/csf_volume/rightlateralventricle</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/csf_volume/rightlateralventricle</t>
   </si>
   <si>
     <t xml:space="preserve">Cerebellar Vermal Lobules I-V</t>
@@ -203,7 +204,7 @@
     <t xml:space="preserve">cerebellarvermallobulesiv</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/cerebellum/cerebellarvermallobulesiv</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/cerebellum/cerebellarvermallobulesiv</t>
   </si>
   <si>
     <t xml:space="preserve">Cerebellar Vermal Lobules VIII-X</t>
@@ -212,7 +213,7 @@
     <t xml:space="preserve">cerebellarvermallobulesviiix</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/cerebellum/cerebellarvermallobulesviiix</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/cerebellum/cerebellarvermallobulesviiix</t>
   </si>
   <si>
     <t xml:space="preserve">Cerebellar Vermal Lobules VI-VII</t>
@@ -221,7 +222,7 @@
     <t xml:space="preserve">cerebellarvermallobulesvivii</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/cerebellum/cerebellarvermallobulesvivii</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/cerebellum/cerebellarvermallobulesvivii</t>
   </si>
   <si>
     <t xml:space="preserve">Left Cerebellum Exterior</t>
@@ -230,7 +231,7 @@
     <t xml:space="preserve">leftcerebellumexterior</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/cerebellum/leftcerebellumexterior</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/cerebellum/leftcerebellumexterior</t>
   </si>
   <si>
     <t xml:space="preserve">Right Cerebellum Exterior</t>
@@ -239,7 +240,7 @@
     <t xml:space="preserve">rightcerebellumexterior</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/cerebellum/rightcerebellumexterior</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/cerebellum/rightcerebellumexterior</t>
   </si>
   <si>
     <t xml:space="preserve">Left Amygdala</t>
@@ -248,7 +249,7 @@
     <t xml:space="preserve">leftamygdala</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/cerebral_nuclei/amygdala/leftamygdala</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/cerebral_nuclei/amygdala/leftamygdala</t>
   </si>
   <si>
     <t xml:space="preserve">Right Amygdala</t>
@@ -257,7 +258,7 @@
     <t xml:space="preserve">rightamygdala</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/cerebral_nuclei/amygdala/rightamygdala</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/cerebral_nuclei/amygdala/rightamygdala</t>
   </si>
   <si>
     <t xml:space="preserve">Left Accumbens Area</t>
@@ -266,7 +267,7 @@
     <t xml:space="preserve">leftaccumbensarea</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/leftaccumbensarea</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/leftaccumbensarea</t>
   </si>
   <si>
     <t xml:space="preserve">Left Basal Forebrain</t>
@@ -275,7 +276,7 @@
     <t xml:space="preserve">leftbasalforebrain</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/leftbasalforebrain</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/leftbasalforebrain</t>
   </si>
   <si>
     <t xml:space="preserve">Left Caudate</t>
@@ -284,7 +285,7 @@
     <t xml:space="preserve">leftcaudate</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/leftcaudate</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/leftcaudate</t>
   </si>
   <si>
     <t xml:space="preserve">Left Pallidum</t>
@@ -293,7 +294,7 @@
     <t xml:space="preserve">leftpallidum</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/leftpallidum</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/leftpallidum</t>
   </si>
   <si>
     <t xml:space="preserve">Left Putamen</t>
@@ -302,7 +303,7 @@
     <t xml:space="preserve">leftputamen</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/leftputamen</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/leftputamen</t>
   </si>
   <si>
     <t xml:space="preserve">Right Accumbens Area</t>
@@ -311,7 +312,7 @@
     <t xml:space="preserve">rightaccumbensarea</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/rightaccumbensarea</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/rightaccumbensarea</t>
   </si>
   <si>
     <t xml:space="preserve">Right Basal Forebrain</t>
@@ -320,7 +321,7 @@
     <t xml:space="preserve">rightbasalforebrain</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/rightbasalforebrain</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/rightbasalforebrain</t>
   </si>
   <si>
     <t xml:space="preserve">Right Caudate</t>
@@ -329,7 +330,7 @@
     <t xml:space="preserve">rightcaudate</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/rightcaudate</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/rightcaudate</t>
   </si>
   <si>
     <t xml:space="preserve">Right Pallidum</t>
@@ -338,7 +339,7 @@
     <t xml:space="preserve">rightpallidum</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/rightpallidum</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/rightpallidum</t>
   </si>
   <si>
     <t xml:space="preserve">Right Putamen</t>
@@ -347,7 +348,7 @@
     <t xml:space="preserve">rightputamen</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/rightputamen</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/rightputamen</t>
   </si>
   <si>
     <t xml:space="preserve">Left Ventral DC</t>
@@ -356,7 +357,7 @@
     <t xml:space="preserve">leftventraldc</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/diencephalon/leftventraldc</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/diencephalon/leftventraldc</t>
   </si>
   <si>
     <t xml:space="preserve">Right Ventral DC</t>
@@ -365,7 +366,7 @@
     <t xml:space="preserve">rightventraldc</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/diencephalon/rightventraldc</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/diencephalon/rightventraldc</t>
   </si>
   <si>
     <t xml:space="preserve">Left anterior orbital gyrus</t>
@@ -374,7 +375,7 @@
     <t xml:space="preserve">leftaorganteriororbitalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/leftaorganteriororbitalgyrus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/frontal/leftaorganteriororbitalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left central operculum</t>
@@ -383,7 +384,7 @@
     <t xml:space="preserve">leftcocentraloperculum</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/leftcocentraloperculum</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/frontal/leftcocentraloperculum</t>
   </si>
   <si>
     <t xml:space="preserve">Left frontal operculum</t>
@@ -392,7 +393,7 @@
     <t xml:space="preserve">leftfofrontaloperculum</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/leftfofrontaloperculum</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/frontal/leftfofrontaloperculum</t>
   </si>
   <si>
     <t xml:space="preserve">Left frontal pole</t>
@@ -401,7 +402,7 @@
     <t xml:space="preserve">leftfrpfrontalpole</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/leftfrpfrontalpole</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/frontal/leftfrpfrontalpole</t>
   </si>
   <si>
     <t xml:space="preserve">Left gyrus rectus</t>
@@ -410,7 +411,7 @@
     <t xml:space="preserve">leftgregyrusrectus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/leftgregyrusrectus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/frontal/leftgregyrusrectus</t>
   </si>
   <si>
     <t xml:space="preserve">Left lateral orbital gyrus</t>
@@ -419,7 +420,7 @@
     <t xml:space="preserve">leftlorglateralorbitalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/leftlorglateralorbitalgyrus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/frontal/leftlorglateralorbitalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left medial frontal cortex</t>
@@ -428,7 +429,7 @@
     <t xml:space="preserve">leftmfcmedialfrontalcortex</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/leftmfcmedialfrontalcortex</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/frontal/leftmfcmedialfrontalcortex</t>
   </si>
   <si>
     <t xml:space="preserve">Left middle frontal gyrus</t>
@@ -437,7 +438,7 @@
     <t xml:space="preserve">leftmfgmiddlefrontalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/leftmfgmiddlefrontalgyrus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/frontal/leftmfgmiddlefrontalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left medial orbital gyrus</t>
@@ -446,7 +447,7 @@
     <t xml:space="preserve">leftmorgmedialorbitalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/leftmorgmedialorbitalgyrus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/frontal/leftmorgmedialorbitalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left precentral gyrus medial segment</t>
@@ -455,7 +456,7 @@
     <t xml:space="preserve">leftmprgprecentralgyrusmedialsegment</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/leftmprgprecentralgyrusmedialsegment</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/frontal/leftmprgprecentralgyrusmedialsegment</t>
   </si>
   <si>
     <t xml:space="preserve">Left superior frontal gyrus medial segment</t>
@@ -464,7 +465,7 @@
     <t xml:space="preserve">leftmsfgsuperiorfrontalgyrusmedialsegment</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/leftmsfgsuperiorfrontalgyrusmedialsegment</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/frontal/leftmsfgsuperiorfrontalgyrusmedialsegment</t>
   </si>
   <si>
     <t xml:space="preserve">Left opercular part of the inferior frontal gyrus</t>
@@ -473,7 +474,7 @@
     <t xml:space="preserve">leftopifgopercularpartoftheinferiorfrontalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/leftopifgopercularpartoftheinferiorfrontalgyrus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/frontal/leftopifgopercularpartoftheinferiorfrontalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left orbital part of the inferior frontal gyrus</t>
@@ -482,7 +483,7 @@
     <t xml:space="preserve">leftorifgorbitalpartoftheinferiorfrontalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/leftorifgorbitalpartoftheinferiorfrontalgyrus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/frontal/leftorifgorbitalpartoftheinferiorfrontalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left parietal operculum</t>
@@ -491,7 +492,7 @@
     <t xml:space="preserve">leftpoparietaloperculum</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/leftpoparietaloperculum</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/frontal/leftpoparietaloperculum</t>
   </si>
   <si>
     <t xml:space="preserve">Left posterior orbital gyrus</t>
@@ -500,7 +501,7 @@
     <t xml:space="preserve">leftporgposteriororbitalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/leftporgposteriororbitalgyrus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/frontal/leftporgposteriororbitalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left precentral gyrus</t>
@@ -509,7 +510,7 @@
     <t xml:space="preserve">leftprgprecentralgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/leftprgprecentralgyrus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/frontal/leftprgprecentralgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left subcallosal area</t>
@@ -518,7 +519,7 @@
     <t xml:space="preserve">leftscasubcallosalarea</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/leftscasubcallosalarea</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/frontal/leftscasubcallosalarea</t>
   </si>
   <si>
     <t xml:space="preserve">Left superior frontal gyrus</t>
@@ -527,7 +528,7 @@
     <t xml:space="preserve">leftsfgsuperiorfrontalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/leftsfgsuperiorfrontalgyrus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/frontal/leftsfgsuperiorfrontalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left supplementary motor cortex</t>
@@ -536,7 +537,7 @@
     <t xml:space="preserve">leftsmcsupplementarymotorcortex</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/leftsmcsupplementarymotorcortex</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/frontal/leftsmcsupplementarymotorcortex</t>
   </si>
   <si>
     <t xml:space="preserve">Left triangular part of the inferior frontal gyrus</t>
@@ -545,7 +546,7 @@
     <t xml:space="preserve">lefttrifgtriangularpartoftheinferiorfrontalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/lefttrifgtriangularpartoftheinferiorfrontalgyrus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/frontal/lefttrifgtriangularpartoftheinferiorfrontalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right anterior orbital gyrus</t>
@@ -554,7 +555,7 @@
     <t xml:space="preserve">rightaorganteriororbitalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/rightaorganteriororbitalgyrus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/frontal/rightaorganteriororbitalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right central operculum</t>
@@ -563,7 +564,7 @@
     <t xml:space="preserve">rightcocentraloperculum</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/rightcocentraloperculum</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/frontal/rightcocentraloperculum</t>
   </si>
   <si>
     <t xml:space="preserve">Right frontal operculum</t>
@@ -572,7 +573,7 @@
     <t xml:space="preserve">rightfofrontaloperculum</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/rightfofrontaloperculum</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/frontal/rightfofrontaloperculum</t>
   </si>
   <si>
     <t xml:space="preserve">Right frontal pole</t>
@@ -581,7 +582,7 @@
     <t xml:space="preserve">rightfrpfrontalpole</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/rightfrpfrontalpole</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/frontal/rightfrpfrontalpole</t>
   </si>
   <si>
     <t xml:space="preserve">Right gyrus rectus</t>
@@ -590,7 +591,7 @@
     <t xml:space="preserve">rightgregyrusrectus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/rightgregyrusrectus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/frontal/rightgregyrusrectus</t>
   </si>
   <si>
     <t xml:space="preserve">Right lateral orbital gyrus</t>
@@ -599,7 +600,7 @@
     <t xml:space="preserve">rightlorglateralorbitalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/rightlorglateralorbitalgyrus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/frontal/rightlorglateralorbitalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right medial frontal cortex</t>
@@ -608,7 +609,7 @@
     <t xml:space="preserve">rightmfcmedialfrontalcortex</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/rightmfcmedialfrontalcortex</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/frontal/rightmfcmedialfrontalcortex</t>
   </si>
   <si>
     <t xml:space="preserve">Right middle frontal gyrus</t>
@@ -617,7 +618,7 @@
     <t xml:space="preserve">rightmfgmiddlefrontalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/rightmfgmiddlefrontalgyrus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/frontal/rightmfgmiddlefrontalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right medial orbital gyrus</t>
@@ -626,7 +627,7 @@
     <t xml:space="preserve">rightmorgmedialorbitalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/rightmorgmedialorbitalgyrus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/frontal/rightmorgmedialorbitalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right precentral gyrus medial segment</t>
@@ -635,7 +636,7 @@
     <t xml:space="preserve">rightmprgprecentralgyrusmedialsegment</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/rightmprgprecentralgyrusmedialsegment</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/frontal/rightmprgprecentralgyrusmedialsegment</t>
   </si>
   <si>
     <t xml:space="preserve">Right superior frontal gyrus medial segment</t>
@@ -644,7 +645,7 @@
     <t xml:space="preserve">rightmsfgsuperiorfrontalgyrusmedialsegment</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/rightmsfgsuperiorfrontalgyrusmedialsegment</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/frontal/rightmsfgsuperiorfrontalgyrusmedialsegment</t>
   </si>
   <si>
     <t xml:space="preserve">Right opercular part of the inferior frontal gyrus</t>
@@ -653,7 +654,7 @@
     <t xml:space="preserve">rightopifgopercularpartoftheinferiorfrontalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/rightopifgopercularpartoftheinferiorfrontalgyrus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/frontal/rightopifgopercularpartoftheinferiorfrontalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right orbital part of the inferior frontal gyrus</t>
@@ -662,7 +663,7 @@
     <t xml:space="preserve">rightorifgorbitalpartoftheinferiorfrontalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/rightorifgorbitalpartoftheinferiorfrontalgyrus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/frontal/rightorifgorbitalpartoftheinferiorfrontalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right parietal operculum</t>
@@ -671,7 +672,7 @@
     <t xml:space="preserve">rightpoparietaloperculum</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/rightpoparietaloperculum</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/frontal/rightpoparietaloperculum</t>
   </si>
   <si>
     <t xml:space="preserve">Right posterior orbital gyrus</t>
@@ -680,7 +681,7 @@
     <t xml:space="preserve">rightporgposteriororbitalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/rightporgposteriororbitalgyrus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/frontal/rightporgposteriororbitalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right precentral gyrus</t>
@@ -689,7 +690,7 @@
     <t xml:space="preserve">rightprgprecentralgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/rightprgprecentralgyrus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/frontal/rightprgprecentralgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right subcallosal area</t>
@@ -698,7 +699,7 @@
     <t xml:space="preserve">rightscasubcallosalarea</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/rightscasubcallosalarea</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/frontal/rightscasubcallosalarea</t>
   </si>
   <si>
     <t xml:space="preserve">Right superior frontal gyrus</t>
@@ -707,7 +708,7 @@
     <t xml:space="preserve">rightsfgsuperiorfrontalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/rightsfgsuperiorfrontalgyrus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/frontal/rightsfgsuperiorfrontalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right supplementary motor cortex</t>
@@ -716,7 +717,7 @@
     <t xml:space="preserve">rightsmcsupplementarymotorcortex</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/rightsmcsupplementarymotorcortex</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/frontal/rightsmcsupplementarymotorcortex</t>
   </si>
   <si>
     <t xml:space="preserve">Right triangular part of the inferior frontal gyrus</t>
@@ -725,7 +726,7 @@
     <t xml:space="preserve">righttrifgtriangularpartoftheinferiorfrontalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/righttrifgtriangularpartoftheinferiorfrontalgyrus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/frontal/righttrifgtriangularpartoftheinferiorfrontalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left anterior insula</t>
@@ -734,7 +735,7 @@
     <t xml:space="preserve">leftainsanteriorinsula</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/insula/leftainsanteriorinsula</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/insula/leftainsanteriorinsula</t>
   </si>
   <si>
     <t xml:space="preserve">Left posterior insula</t>
@@ -743,7 +744,7 @@
     <t xml:space="preserve">leftpinsposteriorinsula</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/insula/leftpinsposteriorinsula</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/insula/leftpinsposteriorinsula</t>
   </si>
   <si>
     <t xml:space="preserve">Right anterior insula</t>
@@ -752,7 +753,7 @@
     <t xml:space="preserve">rightainsanteriorinsula</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/insula/rightainsanteriorinsula</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/insula/rightainsanteriorinsula</t>
   </si>
   <si>
     <t xml:space="preserve">Right posterior insula</t>
@@ -761,7 +762,7 @@
     <t xml:space="preserve">rightpinsposteriorinsula</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/insula/rightpinsposteriorinsula</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/insula/rightpinsposteriorinsula</t>
   </si>
   <si>
     <t xml:space="preserve">Left anterior cingulate gyrus</t>
@@ -770,7 +771,7 @@
     <t xml:space="preserve">leftacgganteriorcingulategyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/limbic/leftacgganteriorcingulategyrus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/limbic/leftacgganteriorcingulategyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left entorhinal area</t>
@@ -779,7 +780,7 @@
     <t xml:space="preserve">leftententorhinalarea</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/limbic/leftententorhinalarea</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/limbic/leftententorhinalarea</t>
   </si>
   <si>
     <t xml:space="preserve">Left Hippocampus</t>
@@ -788,7 +789,7 @@
     <t xml:space="preserve">lefthippocampus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/limbic/lefthippocampus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/limbic/lefthippocampus</t>
   </si>
   <si>
     <t xml:space="preserve">Left middle cingulate gyrus</t>
@@ -797,7 +798,7 @@
     <t xml:space="preserve">leftmcggmiddlecingulategyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/limbic/leftmcggmiddlecingulategyrus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/limbic/leftmcggmiddlecingulategyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left posterior cingulate gyrus</t>
@@ -806,7 +807,7 @@
     <t xml:space="preserve">leftpcggposteriorcingulategyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/limbic/leftpcggposteriorcingulategyrus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/limbic/leftpcggposteriorcingulategyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left parahippocampal gyrus</t>
@@ -815,7 +816,7 @@
     <t xml:space="preserve">leftphgparahippocampalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/limbic/leftphgparahippocampalgyrus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/limbic/leftphgparahippocampalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left Thalamus</t>
@@ -824,7 +825,7 @@
     <t xml:space="preserve">leftthalamusproper</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/limbic/leftthalamusproper</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/limbic/leftthalamusproper</t>
   </si>
   <si>
     <t xml:space="preserve">Right anterior cingulate gyrus</t>
@@ -833,7 +834,7 @@
     <t xml:space="preserve">rightacgganteriorcingulategyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/limbic/rightacgganteriorcingulategyrus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/limbic/rightacgganteriorcingulategyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right entorhinal area</t>
@@ -842,7 +843,7 @@
     <t xml:space="preserve">rightententorhinalarea</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/limbic/rightententorhinalarea</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/limbic/rightententorhinalarea</t>
   </si>
   <si>
     <t xml:space="preserve">Right Hippocampus</t>
@@ -851,7 +852,7 @@
     <t xml:space="preserve">righthippocampus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/limbic/righthippocampus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/limbic/righthippocampus</t>
   </si>
   <si>
     <t xml:space="preserve">Right middle cingulate gyrus</t>
@@ -860,7 +861,7 @@
     <t xml:space="preserve">rightmcggmiddlecingulategyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/limbic/rightmcggmiddlecingulategyrus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/limbic/rightmcggmiddlecingulategyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right posterior cingulate gyrus</t>
@@ -869,7 +870,7 @@
     <t xml:space="preserve">rightpcggposteriorcingulategyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/limbic/rightpcggposteriorcingulategyrus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/limbic/rightpcggposteriorcingulategyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right parahippocampal gyrus</t>
@@ -878,7 +879,7 @@
     <t xml:space="preserve">rightphgparahippocampalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/limbic/rightphgparahippocampalgyrus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/limbic/rightphgparahippocampalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right Thalamus</t>
@@ -887,7 +888,7 @@
     <t xml:space="preserve">rightthalamusproper</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/limbic/rightthalamusproper</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/limbic/rightthalamusproper</t>
   </si>
   <si>
     <t xml:space="preserve">Left calcarine cortex</t>
@@ -896,7 +897,7 @@
     <t xml:space="preserve">leftcalccalcarinecortex</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/occipital/leftcalccalcarinecortex</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/occipital/leftcalccalcarinecortex</t>
   </si>
   <si>
     <t xml:space="preserve">Left cuneus</t>
@@ -905,7 +906,7 @@
     <t xml:space="preserve">leftcuncuneus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/occipital/leftcuncuneus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/occipital/leftcuncuneus</t>
   </si>
   <si>
     <t xml:space="preserve">Left inferior occipital gyrus</t>
@@ -914,7 +915,7 @@
     <t xml:space="preserve">leftioginferioroccipitalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/occipital/leftioginferioroccipitalgyrus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/occipital/leftioginferioroccipitalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left lingual gyrus</t>
@@ -923,7 +924,7 @@
     <t xml:space="preserve">leftliglingualgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/occipital/leftliglingualgyrus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/occipital/leftliglingualgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left middle occipital gyrus</t>
@@ -932,7 +933,7 @@
     <t xml:space="preserve">leftmogmiddleoccipitalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/occipital/leftmogmiddleoccipitalgyrus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/occipital/leftmogmiddleoccipitalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left occipital pole</t>
@@ -941,7 +942,7 @@
     <t xml:space="preserve">leftocpoccipitalpole</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/occipital/leftocpoccipitalpole</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/occipital/leftocpoccipitalpole</t>
   </si>
   <si>
     <t xml:space="preserve">Left occipital fusiform gyrus</t>
@@ -950,7 +951,7 @@
     <t xml:space="preserve">leftofugoccipitalfusiformgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/occipital/leftofugoccipitalfusiformgyrus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/occipital/leftofugoccipitalfusiformgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left superior occipital gyrus</t>
@@ -959,7 +960,7 @@
     <t xml:space="preserve">leftsogsuperioroccipitalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/occipital/leftsogsuperioroccipitalgyrus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/occipital/leftsogsuperioroccipitalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right calcarine cortex</t>
@@ -968,7 +969,7 @@
     <t xml:space="preserve">rightcalccalcarinecortex</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/occipital/rightcalccalcarinecortex</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/occipital/rightcalccalcarinecortex</t>
   </si>
   <si>
     <t xml:space="preserve">Right cuneus</t>
@@ -977,7 +978,7 @@
     <t xml:space="preserve">rightcuncuneus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/occipital/rightcuncuneus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/occipital/rightcuncuneus</t>
   </si>
   <si>
     <t xml:space="preserve">Right inferior occipital gyrus</t>
@@ -986,7 +987,7 @@
     <t xml:space="preserve">rightioginferioroccipitalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/occipital/rightioginferioroccipitalgyrus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/occipital/rightioginferioroccipitalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right lingual gyrus</t>
@@ -995,7 +996,7 @@
     <t xml:space="preserve">rightliglingualgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/occipital/rightliglingualgyrus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/occipital/rightliglingualgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right middle occipital gyrus</t>
@@ -1004,7 +1005,7 @@
     <t xml:space="preserve">rightmogmiddleoccipitalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/occipital/rightmogmiddleoccipitalgyrus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/occipital/rightmogmiddleoccipitalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right occipital pole</t>
@@ -1013,7 +1014,7 @@
     <t xml:space="preserve">rightocpoccipitalpole</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/occipital/rightocpoccipitalpole</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/occipital/rightocpoccipitalpole</t>
   </si>
   <si>
     <t xml:space="preserve">Right occipital fusiform gyrus</t>
@@ -1022,7 +1023,7 @@
     <t xml:space="preserve">rightofugoccipitalfusiformgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/occipital/rightofugoccipitalfusiformgyrus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/occipital/rightofugoccipitalfusiformgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right superior occipital gyrus</t>
@@ -1031,7 +1032,7 @@
     <t xml:space="preserve">rightsogsuperioroccipitalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/occipital/rightsogsuperioroccipitalgyrus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/occipital/rightsogsuperioroccipitalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left angular gyrus</t>
@@ -1040,7 +1041,7 @@
     <t xml:space="preserve">leftangangulargyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/parietal/leftangangulargyrus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/parietal/leftangangulargyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left postcentral gyrus medial segment</t>
@@ -1049,7 +1050,7 @@
     <t xml:space="preserve">leftmpogpostcentralgyrusmedialsegment</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/parietal/leftmpogpostcentralgyrusmedialsegment</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/parietal/leftmpogpostcentralgyrusmedialsegment</t>
   </si>
   <si>
     <t xml:space="preserve">Left precuneus</t>
@@ -1058,7 +1059,7 @@
     <t xml:space="preserve">leftpcuprecuneus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/parietal/leftpcuprecuneus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/parietal/leftpcuprecuneus</t>
   </si>
   <si>
     <t xml:space="preserve">Left postcentral gyrus</t>
@@ -1067,7 +1068,7 @@
     <t xml:space="preserve">leftpogpostcentralgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/parietal/leftpogpostcentralgyrus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/parietal/leftpogpostcentralgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left supramarginal gyrus</t>
@@ -1076,7 +1077,7 @@
     <t xml:space="preserve">leftsmgsupramarginalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/parietal/leftsmgsupramarginalgyrus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/parietal/leftsmgsupramarginalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left superior parietal lobule</t>
@@ -1085,7 +1086,7 @@
     <t xml:space="preserve">leftsplsuperiorparietallobule</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/parietal/leftsplsuperiorparietallobule</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/parietal/leftsplsuperiorparietallobule</t>
   </si>
   <si>
     <t xml:space="preserve">Right angular gyrus</t>
@@ -1094,7 +1095,7 @@
     <t xml:space="preserve">rightangangulargyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/parietal/rightangangulargyrus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/parietal/rightangangulargyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right postcentral gyrus medial segment</t>
@@ -1103,7 +1104,7 @@
     <t xml:space="preserve">rightmpogpostcentralgyrusmedialsegment</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/parietal/rightmpogpostcentralgyrusmedialsegment</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/parietal/rightmpogpostcentralgyrusmedialsegment</t>
   </si>
   <si>
     <t xml:space="preserve">Right precuneus</t>
@@ -1112,7 +1113,7 @@
     <t xml:space="preserve">rightpcuprecuneus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/parietal/rightpcuprecuneus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/parietal/rightpcuprecuneus</t>
   </si>
   <si>
     <t xml:space="preserve">Right postcentral gyrus</t>
@@ -1121,7 +1122,7 @@
     <t xml:space="preserve">rightpogpostcentralgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/parietal/rightpogpostcentralgyrus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/parietal/rightpogpostcentralgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right supramarginal gyrus</t>
@@ -1130,7 +1131,7 @@
     <t xml:space="preserve">rightsmgsupramarginalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/parietal/rightsmgsupramarginalgyrus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/parietal/rightsmgsupramarginalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right superior parietal lobule</t>
@@ -1139,7 +1140,7 @@
     <t xml:space="preserve">rightsplsuperiorparietallobule</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/parietal/rightsplsuperiorparietallobule</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/parietal/rightsplsuperiorparietallobule</t>
   </si>
   <si>
     <t xml:space="preserve">Left fusiform gyrus</t>
@@ -1148,7 +1149,7 @@
     <t xml:space="preserve">leftfugfusiformgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/temporal/leftfugfusiformgyrus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/temporal/leftfugfusiformgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left inferior temporal gyrus</t>
@@ -1157,7 +1158,7 @@
     <t xml:space="preserve">leftitginferiortemporalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/temporal/leftitginferiortemporalgyrus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/temporal/leftitginferiortemporalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left middle temporal gyrus</t>
@@ -1166,7 +1167,7 @@
     <t xml:space="preserve">leftmtgmiddletemporalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/temporal/leftmtgmiddletemporalgyrus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/temporal/leftmtgmiddletemporalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left planum polare</t>
@@ -1175,7 +1176,7 @@
     <t xml:space="preserve">leftppplanumpolare</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/temporal/leftppplanumpolare</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/temporal/leftppplanumpolare</t>
   </si>
   <si>
     <t xml:space="preserve">Left planum temporale</t>
@@ -1184,7 +1185,7 @@
     <t xml:space="preserve">leftptplanumtemporale</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/temporal/leftptplanumtemporale</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/temporal/leftptplanumtemporale</t>
   </si>
   <si>
     <t xml:space="preserve">Left superior temporal gyrus</t>
@@ -1193,7 +1194,7 @@
     <t xml:space="preserve">leftstgsuperiortemporalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/temporal/leftstgsuperiortemporalgyrus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/temporal/leftstgsuperiortemporalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left temporal pole</t>
@@ -1202,7 +1203,7 @@
     <t xml:space="preserve">lefttmptemporalpole</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/temporal/lefttmptemporalpole</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/temporal/lefttmptemporalpole</t>
   </si>
   <si>
     <t xml:space="preserve">Left transverse temporal gyrus</t>
@@ -1211,7 +1212,7 @@
     <t xml:space="preserve">leftttgtransversetemporalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/temporal/leftttgtransversetemporalgyrus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/temporal/leftttgtransversetemporalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right fusiform gyrus</t>
@@ -1220,7 +1221,7 @@
     <t xml:space="preserve">rightfugfusiformgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/temporal/rightfugfusiformgyrus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/temporal/rightfugfusiformgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right inferior temporal gyrus</t>
@@ -1229,7 +1230,7 @@
     <t xml:space="preserve">rightitginferiortemporalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/temporal/rightitginferiortemporalgyrus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/temporal/rightitginferiortemporalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right middle temporal gyrus</t>
@@ -1238,7 +1239,7 @@
     <t xml:space="preserve">rightmtgmiddletemporalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/temporal/rightmtgmiddletemporalgyrus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/temporal/rightmtgmiddletemporalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right planum polare</t>
@@ -1247,7 +1248,7 @@
     <t xml:space="preserve">rightppplanumpolare</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/temporal/rightppplanumpolare</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/temporal/rightppplanumpolare</t>
   </si>
   <si>
     <t xml:space="preserve">Right planum temporale</t>
@@ -1256,7 +1257,7 @@
     <t xml:space="preserve">rightptplanumtemporale</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/temporal/rightptplanumtemporale</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/temporal/rightptplanumtemporale</t>
   </si>
   <si>
     <t xml:space="preserve">Right superior temporal gyrus</t>
@@ -1265,7 +1266,7 @@
     <t xml:space="preserve">rightstgsuperiortemporalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/temporal/rightstgsuperiortemporalgyrus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/temporal/rightstgsuperiortemporalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right temporal pole</t>
@@ -1274,7 +1275,7 @@
     <t xml:space="preserve">righttmptemporalpole</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/temporal/righttmptemporalpole</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/temporal/righttmptemporalpole</t>
   </si>
   <si>
     <t xml:space="preserve">Right transverse temporal gyrus</t>
@@ -1283,7 +1284,7 @@
     <t xml:space="preserve">rightttgtransversetemporalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/temporal/rightttgtransversetemporalgyrus</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/grey_matter_volume/temporal/rightttgtransversetemporalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left Cerebellum White Matter</t>
@@ -1292,7 +1293,7 @@
     <t xml:space="preserve">leftcerebellumwhitematter</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/white_matter_volume/leftcerebellumwhitematter</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/white_matter_volume/leftcerebellumwhitematter</t>
   </si>
   <si>
     <t xml:space="preserve">Left Cerebral White Matter</t>
@@ -1301,7 +1302,7 @@
     <t xml:space="preserve">leftcerebralwhitematter</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/white_matter_volume/leftcerebralwhitematter</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/white_matter_volume/leftcerebralwhitematter</t>
   </si>
   <si>
     <t xml:space="preserve">Optic chiasm</t>
@@ -1310,7 +1311,7 @@
     <t xml:space="preserve">opticchiasm</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/white_matter_volume/opticchiasm</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/white_matter_volume/opticchiasm</t>
   </si>
   <si>
     <t xml:space="preserve">Right Cerebellum White Matter</t>
@@ -1319,7 +1320,7 @@
     <t xml:space="preserve">rightcerebellumwhitematter</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/white_matter_volume/rightcerebellumwhitematter</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/white_matter_volume/rightcerebellumwhitematter</t>
   </si>
   <si>
     <t xml:space="preserve">Right Cerebral White Matter</t>
@@ -1328,7 +1329,7 @@
     <t xml:space="preserve">rightcerebralwhitematter</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/white_matter_volume/rightcerebralwhitematter</t>
+    <t xml:space="preserve">/dementia/brain_anatomy/white_matter_volume/rightcerebralwhitematter</t>
   </si>
   <si>
     <t xml:space="preserve">ADNI category</t>
@@ -1346,7 +1347,7 @@
     <t xml:space="preserve">Terms aggregating illnesses into classes. Note that the diagnosis in this categories are given only for the ADNI data set.</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/diagnosis/dataset_specific_diagnosis/adnicategory</t>
+    <t xml:space="preserve">/dementia/diagnosis/dataset_specific_diagnosis/adnicategory</t>
   </si>
   <si>
     <t xml:space="preserve">Alzheimer Broad Category</t>
@@ -1361,7 +1362,7 @@
     <t xml:space="preserve">There will be two broad categories taken into account. Alzheimer s disease (AD) in which the diagnostic is 100% certain and &lt;Other&gt; comprising the rest of Alzheimer s related categories. The &lt;Other&gt; category refers to Alzheime s related diagnosis which origin can be traced to other pathology eg. vascular. In this category MCI diagnosis can also be found. In summary  all Alzheimer s related diagnosis that are not pure.</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/diagnosis/alzheimerbroadcategory</t>
+    <t xml:space="preserve">/dementia/diagnosis/alzheimerbroadcategory</t>
   </si>
   <si>
     <t xml:space="preserve">EDSD category</t>
@@ -1373,7 +1374,7 @@
     <t xml:space="preserve">Terms aggregating illnesses into classes. Note that the diagnosis in this categories are given only for the EDSD data set.</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/diagnosis/dataset_specific_diagnosis/edsdcategory</t>
+    <t xml:space="preserve">/dementia/diagnosis/dataset_specific_diagnosis/edsdcategory</t>
   </si>
   <si>
     <t xml:space="preserve">Neurodegeneratives categories</t>
@@ -1388,7 +1389,7 @@
     <t xml:space="preserve">There will be two broad categories taken into account. Parkinson s disease without disability or light disability: Without fluctuation of the effect. Dementia in Parkinson s disease</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/diagnosis/neurodegenerativescategories</t>
+    <t xml:space="preserve">/dementia/diagnosis/neurodegenerativescategories</t>
   </si>
   <si>
     <t xml:space="preserve">Parkinson Broad Category</t>
@@ -1400,7 +1401,7 @@
     <t xml:space="preserve">{“PD”,”Dementia in Parkinson''s disease”},{”CN”,”Healthy control”},{”Other”,”Parkinson''s disease without disability or light disability: Without fluctuation of the effect”}</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/diagnosis/parkinsonbroadcategory</t>
+    <t xml:space="preserve">/dementia/diagnosis/parkinsonbroadcategory</t>
   </si>
   <si>
     <t xml:space="preserve">PPMI category</t>
@@ -1415,7 +1416,7 @@
     <t xml:space="preserve">Terms aggregating the Parkinson s diseases into classes. For this instance the diagnosis given at enrollment is taken as the clinical diagnosis. Note that the diagnosis in this categories are given only for the PPMI data set.</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/diagnosis/dataset_specific_diagnosis/ppmicategory</t>
+    <t xml:space="preserve">/dementia/diagnosis/dataset_specific_diagnosis/ppmicategory</t>
   </si>
   <si>
     <t xml:space="preserve">MMSE Total scores</t>
@@ -1433,7 +1434,7 @@
     <t xml:space="preserve">The Mini Mental State Examination (MMSE) or Folstein test is a 30-point questionnaire that is used extensively in clinical and research settings to measure cognitive impairment. It is commonly used to screen for dementia.</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/neuropsychology/minimentalstate</t>
+    <t xml:space="preserve">/dementia/neuropsychology/minimentalstate</t>
   </si>
   <si>
     <t xml:space="preserve">MoCA Total</t>
@@ -1445,7 +1446,7 @@
     <t xml:space="preserve">The Montreal Cognitive Assessment (MoCA) was designed as a rapid screening instrument for mild cognitive dysfunction. It assesses different cognitive domains: attention and concentration  executive functions  memory  language  visuoconstructional skills  conceptual thinking  calculations  and orientation. MoCA Total Scores refer to the final count obtained by patients after the complete test is performed.</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/neuropsychology/montrealcognitiveassessment</t>
+    <t xml:space="preserve">/dementia/neuropsychology/montrealcognitiveassessment</t>
   </si>
   <si>
     <t xml:space="preserve">UPDRS HY</t>
@@ -1460,7 +1461,7 @@
     <t xml:space="preserve">The Hoehn and Yahr scale (HY) is a widely used clinical rating scale  which defines broad categories of motor function in Parkinson\u2019s disease (PD). It captures typical patterns of progressive motor impairment.</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/neuropsychology/updrs/updrshy</t>
+    <t xml:space="preserve">/dementia/neuropsychology/updrs/updrshy</t>
   </si>
   <si>
     <t xml:space="preserve">UPDRS Total</t>
@@ -1475,7 +1476,7 @@
     <t xml:space="preserve">The unified Parkinson s disease rating scale (UPDRS) is used to follow the longitudinal course of Parkinson s disease. The UPD rating scale is the most commonly used scale in the clinical study of Parkinson s disease.</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/neuropsychology/updrs/updrstotal</t>
+    <t xml:space="preserve">/dementia/neuropsychology/updrs/updrstotal</t>
   </si>
   <si>
     <t xml:space="preserve">agegroup</t>
@@ -1487,7 +1488,7 @@
     <t xml:space="preserve">Age Group</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/demographics/agegroup</t>
+    <t xml:space="preserve">/dementia/demographics/agegroup</t>
   </si>
   <si>
     <t xml:space="preserve">Gender</t>
@@ -1505,7 +1506,7 @@
     <t xml:space="preserve">Gender of the patient - Sex assigned at birth</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/demographics/gender</t>
+    <t xml:space="preserve">/dementia/demographics/gender</t>
   </si>
   <si>
     <t xml:space="preserve">Handedness</t>
@@ -1520,7 +1521,7 @@
     <t xml:space="preserve">Describes the tendency of the patient to use either the right or the left hand more naturally than the other.</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/demographics/handedness</t>
+    <t xml:space="preserve">/dementia/demographics/handedness</t>
   </si>
   <si>
     <t xml:space="preserve">SubjectAge</t>
@@ -1538,7 +1539,7 @@
     <t xml:space="preserve">Exact age of the subject  for datasets that allow such precision.</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/demographics/subjectage</t>
+    <t xml:space="preserve">/dementia/demographics/subjectage</t>
   </si>
   <si>
     <t xml:space="preserve">Age Years</t>
@@ -1556,7 +1557,7 @@
     <t xml:space="preserve">Subject age in years.</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/demographics/subjectageyears</t>
+    <t xml:space="preserve">/dementia/demographics/subjectageyears</t>
   </si>
   <si>
     <t xml:space="preserve">ApoE4</t>
@@ -1571,7 +1572,7 @@
     <t xml:space="preserve">Apolipoprotein E (APOE) e4 allele: is the strongest risk factor for Late Onset Alzheimer Disease (LOAD). At least one copy of APOE-e4 </t>
   </si>
   <si>
-    <t xml:space="preserve">/root/genetic/polymorphism/apoe4</t>
+    <t xml:space="preserve">/dementia/genetic/polymorphism/apoe4</t>
   </si>
   <si>
     <t xml:space="preserve">rs10498633_T</t>
@@ -1580,7 +1581,7 @@
     <t xml:space="preserve">rs10498633_t</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/genetic/polymorphism/rs10498633_t</t>
+    <t xml:space="preserve">/dementia/genetic/polymorphism/rs10498633_t</t>
   </si>
   <si>
     <t xml:space="preserve">rs11136000_T</t>
@@ -1589,7 +1590,7 @@
     <t xml:space="preserve">rs11136000_t</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/genetic/polymorphism/rs11136000_t</t>
+    <t xml:space="preserve">/dementia/genetic/polymorphism/rs11136000_t</t>
   </si>
   <si>
     <t xml:space="preserve">rs11767557_C</t>
@@ -1598,7 +1599,7 @@
     <t xml:space="preserve">rs11767557_c</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/genetic/polymorphism/rs11767557_c</t>
+    <t xml:space="preserve">/dementia/genetic/polymorphism/rs11767557_c</t>
   </si>
   <si>
     <t xml:space="preserve">rs1476679_C</t>
@@ -1607,7 +1608,7 @@
     <t xml:space="preserve">rs1476679_c</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/genetic/polymorphism/rs1476679_c</t>
+    <t xml:space="preserve">/dementia/genetic/polymorphism/rs1476679_c</t>
   </si>
   <si>
     <t xml:space="preserve">rs17125944_C</t>
@@ -1616,7 +1617,7 @@
     <t xml:space="preserve">rs17125944_c</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/genetic/polymorphism/rs17125944_c</t>
+    <t xml:space="preserve">/dementia/genetic/polymorphism/rs17125944_c</t>
   </si>
   <si>
     <t xml:space="preserve">rs190982_G</t>
@@ -1625,7 +1626,7 @@
     <t xml:space="preserve">rs190982_g</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/genetic/polymorphism/rs190982_g</t>
+    <t xml:space="preserve">/dementia/genetic/polymorphism/rs190982_g</t>
   </si>
   <si>
     <t xml:space="preserve">rs2718058_G</t>
@@ -1634,7 +1635,7 @@
     <t xml:space="preserve">rs2718058_g</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/genetic/polymorphism/rs2718058_g</t>
+    <t xml:space="preserve">/dementia/genetic/polymorphism/rs2718058_g</t>
   </si>
   <si>
     <t xml:space="preserve">rs3764650_G</t>
@@ -1643,7 +1644,7 @@
     <t xml:space="preserve">rs3764650_g</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/genetic/polymorphism/rs3764650_g</t>
+    <t xml:space="preserve">/dementia/genetic/polymorphism/rs3764650_g</t>
   </si>
   <si>
     <t xml:space="preserve">rs3818361_T</t>
@@ -1652,7 +1653,7 @@
     <t xml:space="preserve">rs3818361_t</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/genetic/polymorphism/rs3818361_t</t>
+    <t xml:space="preserve">/dementia/genetic/polymorphism/rs3818361_t</t>
   </si>
   <si>
     <t xml:space="preserve">rs3851179_A</t>
@@ -1661,7 +1662,7 @@
     <t xml:space="preserve">rs3851179_a</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/genetic/polymorphism/rs3851179_a</t>
+    <t xml:space="preserve">/dementia/genetic/polymorphism/rs3851179_a</t>
   </si>
   <si>
     <t xml:space="preserve">rs3865444_T</t>
@@ -1670,7 +1671,7 @@
     <t xml:space="preserve">rs3865444_t</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/genetic/polymorphism/rs3865444_t</t>
+    <t xml:space="preserve">/dementia/genetic/polymorphism/rs3865444_t</t>
   </si>
   <si>
     <t xml:space="preserve">rs610932_A</t>
@@ -1679,7 +1680,7 @@
     <t xml:space="preserve">rs610932_a</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/genetic/polymorphism/rs610932_a</t>
+    <t xml:space="preserve">/dementia/genetic/polymorphism/rs610932_a</t>
   </si>
   <si>
     <t xml:space="preserve">rs744373_C</t>
@@ -1688,7 +1689,7 @@
     <t xml:space="preserve">rs744373_c</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/genetic/polymorphism/rs744373_c</t>
+    <t xml:space="preserve">/dementia/genetic/polymorphism/rs744373_c</t>
   </si>
   <si>
     <t xml:space="preserve">Dataset</t>
@@ -1703,7 +1704,7 @@
     <t xml:space="preserve">Variable used to differentiate datasets</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/dataset</t>
+    <t xml:space="preserve">/dementia/dataset</t>
   </si>
   <si>
     <t xml:space="preserve">Level of amyloid beta 1-42 peptides in cerebrospinal fluid</t>
@@ -1715,7 +1716,7 @@
     <t xml:space="preserve">A\u03b2 is the main component of amyloid plaques (extracellular deposits found in the brains of patients with Alzheimer’s disease). Similar plaques appear in some variants of Lewy body dementia and in inclusion body myositis (a muscle disease), while A\u03b2 can also form the aggregates that coat cerebral blood vessels in cerebral amyloid angiopathy. The plaques are composed of a tangle of regularly ordered fibrillar aggregates called amyloid fibers, a protein fold shared by other peptides such as the prions associated with protein misfolding diseases.</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/proteome/csf_proteome/ab1_42</t>
+    <t xml:space="preserve">/dementia/proteome/csf_proteome/ab1_42</t>
   </si>
   <si>
     <t xml:space="preserve">is the amyloid 42 level pathological (ie &lt;700) ?</t>
@@ -1730,7 +1731,7 @@
     <t xml:space="preserve">the amyloid 42 level is pathological if the level is inferior to 700</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/proteome/csf_proteome/amyloid42_status</t>
+    <t xml:space="preserve">/dementia/proteome/csf_proteome/amyloid42_status</t>
   </si>
   <si>
     <t xml:space="preserve">Level of amyloid beta 1-40 peptides in cerebrospinal fluid</t>
@@ -1742,7 +1743,7 @@
     <t xml:space="preserve">A\u03b2 is the main component of amyloid plaques (extracellular deposits found in the brains of patients with Alzheimer's disease). Similar plaques appear in some variants of Lewy body dementia and in inclusion body myositis (a muscle disease), while A\u03b2 can also form the aggregates that coat cerebral blood vessels in cerebral amyloid angiopathy. The plaques are composed of a tangle of regularly ordered fibrillar aggregates called amyloid fibers, a protein fold shared by other peptides such as the prions associated with protein misfolding diseases.</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/proteome/csf_proteome/ab1_40</t>
+    <t xml:space="preserve">/dementia/proteome/csf_proteome/ab1_40</t>
   </si>
   <si>
     <t xml:space="preserve">Total level of tau proteins in cerebrospinal fluid</t>
@@ -1754,7 +1755,7 @@
     <t xml:space="preserve">Tau proteins (or \u03c4 proteins) are proteins that stabilize microtubules. They are abundant in neurons of the central nervous system and are less common elsewhere, but are also expressed at very low levels in CNS astrocytes and oligodendrocytes. Pathologies and dementias of the nervous system such as Alzheimer’s disease and Parkinson’s disease are associated with tau proteins that have become defective and no longer stabilize microtubules properly.</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/proteome/csf_proteome/t_tau</t>
+    <t xml:space="preserve">/dementia/proteome/csf_proteome/t_tau</t>
   </si>
   <si>
     <t xml:space="preserve">Level of phosphorylated tau proteins in cerebrospinal fluid</t>
@@ -1766,7 +1767,7 @@
     <t xml:space="preserve">Hyperphosphorylation of the tau protein (tau inclusions, pTau) can result in the self-assembly of tangles of paired helical filaments and straight filaments, which are involved in the pathogenesis of Alzheimer's disease, frontotemporal dementia, and other tauopathies.</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/proteome/csf_proteome/p_tau</t>
+    <t xml:space="preserve">/dementia/proteome/csf_proteome/p_tau</t>
   </si>
   <si>
     <t xml:space="preserve">is the phosphorylated tau proteins level pathological (ie &gt; 60)?</t>
@@ -1781,7 +1782,7 @@
     <t xml:space="preserve">the phosphorylated tau proteins level is pathological if it is superior to 60</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/proteome/csf_proteome/p_tau_status</t>
+    <t xml:space="preserve">/dementia/proteome/csf_proteome/p_tau_status</t>
   </si>
   <si>
     <t xml:space="preserve">clm_file</t>
@@ -1796,7 +1797,7 @@
     <t xml:space="preserve">Type is polynominal but we don’t have the values</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/diagnosis/bna/DIAG_etiology_1</t>
+    <t xml:space="preserve">/dementia/diagnosis/bna/DIAG_etiology_1</t>
   </si>
   <si>
     <t xml:space="preserve">DIAG:etiology:2</t>
@@ -1805,7 +1806,7 @@
     <t xml:space="preserve">DIAG_etiology_2</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/diagnosis/bna/DIAG_etiology_2</t>
+    <t xml:space="preserve">/dementia/diagnosis/bna/DIAG_etiology_2</t>
   </si>
   <si>
     <t xml:space="preserve">DIAG:etiology:3</t>
@@ -1814,7 +1815,7 @@
     <t xml:space="preserve">DIAG_etiology_3</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/diagnosis/bna/DIAG_etiology_3</t>
+    <t xml:space="preserve">/dementia/diagnosis/bna/DIAG_etiology_3</t>
   </si>
   <si>
     <t xml:space="preserve">DIAG:stade</t>
@@ -1823,7 +1824,7 @@
     <t xml:space="preserve">DIAG_stade</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/diagnosis/bna/DIAG_stade</t>
+    <t xml:space="preserve">/dementia/diagnosis/bna/DIAG_stade</t>
   </si>
   <si>
     <t xml:space="preserve">DIAG:syndr</t>
@@ -1832,7 +1833,7 @@
     <t xml:space="preserve">DIAG_syndr</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/diagnosis/bna/DIAG_syndr</t>
+    <t xml:space="preserve">/dementia/diagnosis/bna/DIAG_syndr</t>
   </si>
 </sst>
 </file>
@@ -1970,23 +1971,23 @@
   </sheetPr>
   <dimension ref="A1:M180"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G163" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J171" activeCellId="0" sqref="J171"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="48.7295918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="38.6071428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="79.3775510204082"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="74.9183673469388"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="41.0357142857143"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="77.8877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="48.1938775510204"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="38.0663265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="78.5663265306122"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="73.9744897959184"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="40.5"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="76.9438775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
